--- a/Excel-XLSX/UN-BRU.xlsx
+++ b/Excel-XLSX/UN-BRU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7TbJe2</t>
+    <t>9I6Fck</t>
   </si>
   <si>
     <t>2010</t>
@@ -123,7 +123,7 @@
     <t>20992</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>2</t>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -729,8 +735,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -797,8 +803,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -865,8 +871,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -933,8 +939,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1001,8 +1007,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1069,8 +1075,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1137,8 +1143,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>33</v>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1205,8 +1211,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1273,8 +1279,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1341,8 +1347,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1409,8 +1415,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1477,8 +1483,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1546,6 +1552,74 @@
         <v>35</v>
       </c>
       <c r="V14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-BRU.xlsx
+++ b/Excel-XLSX/UN-BRU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9I6Fck</t>
+    <t>GC3Vub</t>
   </si>
   <si>
     <t>2010</t>
@@ -735,8 +735,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -803,8 +803,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -871,8 +871,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -939,8 +939,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1007,8 +1007,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1075,8 +1075,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1143,8 +1143,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1211,8 +1211,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1279,8 +1279,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1347,8 +1347,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1415,8 +1415,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1483,8 +1483,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">

--- a/Excel-XLSX/UN-BRU.xlsx
+++ b/Excel-XLSX/UN-BRU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1620,6 +1626,74 @@
         <v>35</v>
       </c>
       <c r="V15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-BRU.xlsx
+++ b/Excel-XLSX/UN-BRU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>GC3Vub</t>
+    <t>ArkF89</t>
   </si>
   <si>
     <t>2010</t>
